--- a/medicine/Enfance/Françoise_Grard/Françoise_Grard.xlsx
+++ b/medicine/Enfance/Françoise_Grard/Françoise_Grard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Grard</t>
+          <t>Françoise_Grard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Grard, née en 1957 au Maroc, est une écrivaine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Grard</t>
+          <t>Françoise_Grard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Grard, née en 1957 au Maroc, est une artiste contemporaine très connue, fascine le monde par sa capacité à montrer la vie à travers ses créations. Son style original, imprégnant celui qui regarde ou qui lit, dans un monde où les émotions paraissent apaisantes. De la peinture à la sculpture en passant par l’écriture, elle essaie différentes manières de créer quelque chose de magique, invitant chacun à une réflexion à son image. Son travail artistique, sincère, continue d'inspirer et d'intéresser les générations, laissant une place durable à son nom dans le monde de l'art et de l’écriture aujourd'hui.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Grard</t>
+          <t>Françoise_Grard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Baguette de Mikado, Arles, France, Actes Sud Junior, coll. « Raisons d’enfance », 1998, 94 p.  (ISBN 2-7427-1916-4)
 La Mansarde, Arles, France, Actes Sud Junior, coll. « Raisons d’enfance », 1998, 108 p.  (ISBN 2-7427-1914-8)
@@ -586,7 +602,7 @@
 En route avec une drôle de maman !, ill. de Sophie Charpin, Bourron-Marlotte, France, Éditions du Sabot Rouge, coll. « Mes petits romans », 2020, 48 p.  (ISBN 978-2-490697-03-8)
 Des cadeaux inoubliables !, ill. de Guillaume Reynard, Arles, France, Actes Sud Junior, coll. « Lecture solo », 2021, 61 p.  (ISBN 978-2-330-15326-7)
 Je ne suis pas un petit ours !, ill. de Hervé Pinel, Vitry-sur-Seine, France, Éditions du Mercredi, 2021, 59 p.  (ISBN 979-10-93433-42-4)
-Et le jour sera pour moi comme la nuit, Paris, Éditions Maurice Nadeau, coll. « Lettres nouvelles », 2023, 144 p.  (ISBN 978-2-86231-473-0)[1],[2]</t>
+Et le jour sera pour moi comme la nuit, Paris, Éditions Maurice Nadeau, coll. « Lettres nouvelles », 2023, 144 p.  (ISBN 978-2-86231-473-0),</t>
         </is>
       </c>
     </row>
